--- a/leroy/__11list_tovarov_1C(7777).xlsx
+++ b/leroy/__11list_tovarov_1C(7777).xlsx
@@ -15,12 +15,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+  <si>
+    <t>82401-Ч</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82401-Ч Кантри черный 10000х110 мм</t>
+  </si>
+  <si>
+    <t>82402-К</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82402-К Кантри MAXI коричневый 10000х140 мм</t>
+  </si>
   <si>
     <t>82402-Ч</t>
   </si>
   <si>
     <t>Садовый бордюр Anmaks 82402-Ч Кантри MAXI черный 10000х140 мм</t>
+  </si>
+  <si>
+    <t>1940-10</t>
+  </si>
+  <si>
+    <t>Крепящий якорь Anmaks 1940-10 к бордюру Кантри сталь 10 шт</t>
+  </si>
+  <si>
+    <t>508А</t>
+  </si>
+  <si>
+    <t>Решетка водоприемная ANMAKS DN100 стальная оцинкованная, 1000х136 мм</t>
+  </si>
+  <si>
+    <t>82401-К</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82401-К Кантри коричневый 10000х110 мм</t>
+  </si>
+  <si>
+    <t>1840-30</t>
+  </si>
+  <si>
+    <t>Крепящий якорь Anmaks 1840-30 универсальный. Пластик. 30 штук</t>
   </si>
 </sst>
 </file>
@@ -359,7 +395,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -372,18 +408,102 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D1">
-        <v>1150</v>
+        <v>690</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1250</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>1150</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
       <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>450</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>750</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>745</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
         <v>1</v>
+      </c>
+      <c r="D7">
+        <v>690</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="C10">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/leroy/__11list_tovarov_1C(7777).xlsx
+++ b/leroy/__11list_tovarov_1C(7777).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>82401-Ч</t>
   </si>
@@ -23,28 +23,10 @@
     <t>Садовый бордюр Anmaks 82401-Ч Кантри черный 10000х110 мм</t>
   </si>
   <si>
-    <t>82402-К</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82402-К Кантри MAXI коричневый 10000х140 мм</t>
-  </si>
-  <si>
-    <t>82402-Ч</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82402-Ч Кантри MAXI черный 10000х140 мм</t>
-  </si>
-  <si>
-    <t>1940-10</t>
-  </si>
-  <si>
-    <t>Крепящий якорь Anmaks 1940-10 к бордюру Кантри сталь 10 шт</t>
-  </si>
-  <si>
-    <t>508А</t>
-  </si>
-  <si>
-    <t>Решетка водоприемная ANMAKS DN100 стальная оцинкованная, 1000х136 мм</t>
+    <t>1840-30</t>
+  </si>
+  <si>
+    <t>Крепящий якорь Anmaks 1840-30 универсальный. Пластик. 30 штук</t>
   </si>
   <si>
     <t>82401-К</t>
@@ -53,10 +35,22 @@
     <t>Садовый бордюр Anmaks 82401-К Кантри коричневый 10000х110 мм</t>
   </si>
   <si>
-    <t>1840-30</t>
-  </si>
-  <si>
-    <t>Крепящий якорь Anmaks 1840-30 универсальный. Пластик. 30 штук</t>
+    <t>Бордюр Anmaks садовый бордюр 7245 100 см 4.5 см черный</t>
+  </si>
+  <si>
+    <t>Бордюр Anmaks садовый бордюр 7260 100 см 6 см черный</t>
+  </si>
+  <si>
+    <t>82400-З</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82400-З Кантри MINI пластиковый зеленый 10000х80 мм</t>
+  </si>
+  <si>
+    <t>82400-К</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82400-К Кантри MINI пластиковый коричневый 10000х80 мм</t>
   </si>
 </sst>
 </file>
@@ -408,7 +402,7 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D1">
         <v>690</v>
@@ -422,10 +416,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>1250</v>
+        <v>690</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -436,74 +430,74 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>1150</v>
+        <v>745</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="A4">
+        <v>7245</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>206</v>
+      </c>
+      <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>450</v>
-      </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>7260</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>219</v>
+      </c>
+      <c r="E5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>750</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>745</v>
+        <v>600</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>690</v>
+        <v>600</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="C10">
-        <v>47</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/leroy/__11list_tovarov_1C(7777).xlsx
+++ b/leroy/__11list_tovarov_1C(7777).xlsx
@@ -15,7 +15,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+  <si>
+    <t>82402-Ч</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82402-Ч Кантри MAXI черный 10000х140 мм</t>
+  </si>
+  <si>
+    <t>1940-10</t>
+  </si>
+  <si>
+    <t>Крепящий якорь Anmaks 1940-10 к бордюру Кантри сталь 10 шт</t>
+  </si>
+  <si>
+    <t>82400-К</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82400-К Кантри MINI пластиковый коричневый 10000х80 мм</t>
+  </si>
+  <si>
+    <t>Бордюр Anmaks садовый бордюр 7260 100 см 6 см черный</t>
+  </si>
   <si>
     <t>82401-Ч</t>
   </si>
@@ -29,28 +50,16 @@
     <t>Крепящий якорь Anmaks 1840-30 универсальный. Пластик. 30 штук</t>
   </si>
   <si>
+    <t>82400-Ч</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82400-Ч Кантри MINI пластиковый черный 10000х80 мм</t>
+  </si>
+  <si>
     <t>82401-К</t>
   </si>
   <si>
     <t>Садовый бордюр Anmaks 82401-К Кантри коричневый 10000х110 мм</t>
-  </si>
-  <si>
-    <t>Бордюр Anmaks садовый бордюр 7245 100 см 4.5 см черный</t>
-  </si>
-  <si>
-    <t>Бордюр Anmaks садовый бордюр 7260 100 см 6 см черный</t>
-  </si>
-  <si>
-    <t>82400-З</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82400-З Кантри MINI пластиковый зеленый 10000х80 мм</t>
-  </si>
-  <si>
-    <t>82400-К</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82400-К Кантри MINI пластиковый коричневый 10000х80 мм</t>
   </si>
 </sst>
 </file>
@@ -389,7 +398,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -402,10 +411,10 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1">
-        <v>690</v>
+        <v>1150</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -416,10 +425,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>690</v>
+        <v>450</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -430,10 +439,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>745</v>
+        <v>600</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -441,63 +450,77 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>7245</v>
+        <v>7260</v>
       </c>
       <c r="C4">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5">
-        <v>7260</v>
+      <c r="A5" t="s">
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>219</v>
+        <v>690</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>600</v>
+        <v>690</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="C10">
-        <v>92</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>745</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="C11">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/leroy/__11list_tovarov_1C(7777).xlsx
+++ b/leroy/__11list_tovarov_1C(7777).xlsx
@@ -15,7 +15,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+  <si>
+    <t>82401-Ч</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82401-Ч Кантри черный 10000х110 мм</t>
+  </si>
+  <si>
+    <t>Бордюр Anmaks садовый бордюр 7260 100 см 6 см черный</t>
+  </si>
+  <si>
+    <t>1940-10</t>
+  </si>
+  <si>
+    <t>Крепящий якорь Anmaks 1940-10 к бордюру Кантри сталь 10 шт</t>
+  </si>
+  <si>
+    <t>82402-З</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82402-З Кантри MAXI зеленый 10000х140 мм</t>
+  </si>
   <si>
     <t>82402-Ч</t>
   </si>
@@ -23,43 +44,10 @@
     <t>Садовый бордюр Anmaks 82402-Ч Кантри MAXI черный 10000х140 мм</t>
   </si>
   <si>
-    <t>1940-10</t>
-  </si>
-  <si>
-    <t>Крепящий якорь Anmaks 1940-10 к бордюру Кантри сталь 10 шт</t>
-  </si>
-  <si>
-    <t>82400-К</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82400-К Кантри MINI пластиковый коричневый 10000х80 мм</t>
-  </si>
-  <si>
-    <t>Бордюр Anmaks садовый бордюр 7260 100 см 6 см черный</t>
-  </si>
-  <si>
-    <t>82401-Ч</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82401-Ч Кантри черный 10000х110 мм</t>
-  </si>
-  <si>
-    <t>1840-30</t>
-  </si>
-  <si>
-    <t>Крепящий якорь Anmaks 1840-30 универсальный. Пластик. 30 штук</t>
-  </si>
-  <si>
-    <t>82400-Ч</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82400-Ч Кантри MINI пластиковый черный 10000х80 мм</t>
-  </si>
-  <si>
-    <t>82401-К</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82401-К Кантри коричневый 10000х110 мм</t>
+    <t>82402-К</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82402-К Кантри MAXI коричневый 10000х140 мм</t>
   </si>
 </sst>
 </file>
@@ -398,7 +386,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,52 +399,52 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D1">
-        <v>1150</v>
+        <v>690</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>7260</v>
+      </c>
+      <c r="C2">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>219</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>450</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
       <c r="D3">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>7260</v>
-      </c>
       <c r="C4">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>219</v>
+        <v>1250</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -467,10 +455,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>690</v>
+        <v>1150</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -481,46 +469,18 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>690</v>
+        <v>1250</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>550</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>745</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="C11">
-        <v>59</v>
+    <row r="9" spans="1:5">
+      <c r="C9">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/leroy/__11list_tovarov_1C(7777).xlsx
+++ b/leroy/__11list_tovarov_1C(7777).xlsx
@@ -15,7 +15,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+  <si>
+    <t>82402-Ч</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82402-Ч Кантри MAXI черный 10000х140 мм</t>
+  </si>
+  <si>
+    <t>82402-З</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82402-З Кантри MAXI зеленый 10000х140 мм</t>
+  </si>
   <si>
     <t>82401-Ч</t>
   </si>
@@ -23,6 +35,48 @@
     <t>Садовый бордюр Anmaks 82401-Ч Кантри черный 10000х110 мм</t>
   </si>
   <si>
+    <t>82401-К</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82401-К Кантри коричневый 10000х110 мм</t>
+  </si>
+  <si>
+    <t>82401-З</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82401-З Кантри зеленый 10000х110 мм</t>
+  </si>
+  <si>
+    <t>82400-Ч</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82400-Ч Кантри MINI пластиковый черный 10000х80 мм</t>
+  </si>
+  <si>
+    <t>82400-К</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82400-К Кантри MINI пластиковый коричневый 10000х80 мм</t>
+  </si>
+  <si>
+    <t>7245-к-10-30</t>
+  </si>
+  <si>
+    <t>7245-К-10-30 Экобордюр КОНТУР Б-100.05.08 пластиковый черный L-1000 мм, H-45 мм, (10 бордюров + 30 крепежных якорей)</t>
+  </si>
+  <si>
+    <t>82402-К</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82402-К Кантри MAXI коричневый 10000х140 мм</t>
+  </si>
+  <si>
+    <t>1840-30</t>
+  </si>
+  <si>
+    <t>Крепящий якорь Anmaks 1840-30 универсальный. Пластик. 30 штук</t>
+  </si>
+  <si>
     <t>Бордюр Anmaks садовый бордюр 7260 100 см 6 см черный</t>
   </si>
   <si>
@@ -30,24 +84,6 @@
   </si>
   <si>
     <t>Крепящий якорь Anmaks 1940-10 к бордюру Кантри сталь 10 шт</t>
-  </si>
-  <si>
-    <t>82402-З</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82402-З Кантри MAXI зеленый 10000х140 мм</t>
-  </si>
-  <si>
-    <t>82402-Ч</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82402-Ч Кантри MAXI черный 10000х140 мм</t>
-  </si>
-  <si>
-    <t>82402-К</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82402-К Кантри MAXI коричневый 10000х140 мм</t>
   </si>
 </sst>
 </file>
@@ -386,7 +422,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,88 +435,172 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D1">
-        <v>690</v>
+        <v>1150</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2">
-        <v>7260</v>
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>219</v>
+        <v>1250</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>450</v>
+        <v>690</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>1250</v>
+        <v>745</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>1150</v>
+        <v>740</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
+        <v>550</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>600</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2300</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
         <v>1250</v>
       </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="C9">
-        <v>45</v>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>690</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>7260</v>
+      </c>
+      <c r="C11">
+        <v>51</v>
+      </c>
+      <c r="D11">
+        <v>219</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>450</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="C15">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/leroy/__11list_tovarov_1C(7777).xlsx
+++ b/leroy/__11list_tovarov_1C(7777).xlsx
@@ -15,7 +15,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+  <si>
+    <t>82400-Ч</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82400-Ч Кантри MINI пластиковый черный 10000х80 мм</t>
+  </si>
+  <si>
+    <t>7245-к-10</t>
+  </si>
+  <si>
+    <t>7245-К-10 Экобордюр КОНТУР Б-100.05.08 пластиковый черный L-1000 мм, H-45 мм, (10 бордюров )</t>
+  </si>
   <si>
     <t>82402-Ч</t>
   </si>
@@ -23,67 +35,10 @@
     <t>Садовый бордюр Anmaks 82402-Ч Кантри MAXI черный 10000х140 мм</t>
   </si>
   <si>
-    <t>82402-З</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82402-З Кантри MAXI зеленый 10000х140 мм</t>
-  </si>
-  <si>
     <t>82401-Ч</t>
   </si>
   <si>
     <t>Садовый бордюр Anmaks 82401-Ч Кантри черный 10000х110 мм</t>
-  </si>
-  <si>
-    <t>82401-К</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82401-К Кантри коричневый 10000х110 мм</t>
-  </si>
-  <si>
-    <t>82401-З</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82401-З Кантри зеленый 10000х110 мм</t>
-  </si>
-  <si>
-    <t>82400-Ч</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82400-Ч Кантри MINI пластиковый черный 10000х80 мм</t>
-  </si>
-  <si>
-    <t>82400-К</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82400-К Кантри MINI пластиковый коричневый 10000х80 мм</t>
-  </si>
-  <si>
-    <t>7245-к-10-30</t>
-  </si>
-  <si>
-    <t>7245-К-10-30 Экобордюр КОНТУР Б-100.05.08 пластиковый черный L-1000 мм, H-45 мм, (10 бордюров + 30 крепежных якорей)</t>
-  </si>
-  <si>
-    <t>82402-К</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82402-К Кантри MAXI коричневый 10000х140 мм</t>
-  </si>
-  <si>
-    <t>1840-30</t>
-  </si>
-  <si>
-    <t>Крепящий якорь Anmaks 1840-30 универсальный. Пластик. 30 штук</t>
-  </si>
-  <si>
-    <t>Бордюр Anmaks садовый бордюр 7260 100 см 6 см черный</t>
-  </si>
-  <si>
-    <t>1940-10</t>
-  </si>
-  <si>
-    <t>Крепящий якорь Anmaks 1940-10 к бордюру Кантри сталь 10 шт</t>
   </si>
 </sst>
 </file>
@@ -422,7 +377,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,10 +390,10 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>1150</v>
+        <v>550</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -449,10 +404,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1250</v>
+        <v>1900</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -463,10 +418,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>690</v>
+        <v>1150</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -477,130 +432,18 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>745</v>
+        <v>690</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>740</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+    <row r="7" spans="1:5">
+      <c r="C7">
         <v>10</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>550</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>600</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>2300</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>1250</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>690</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>7260</v>
-      </c>
-      <c r="C11">
-        <v>51</v>
-      </c>
-      <c r="D11">
-        <v>219</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>450</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="C15">
-        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/leroy/__11list_tovarov_1C(7777).xlsx
+++ b/leroy/__11list_tovarov_1C(7777).xlsx
@@ -15,7 +15,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+  <si>
+    <t>7280-к-6</t>
+  </si>
+  <si>
+    <t>7280-К-6 Экобордюр КОНТУР Б-100.08.08 пластиковый черный L-1000 мм, H-80 мм, (6 бордюров)</t>
+  </si>
   <si>
     <t>82400-Ч</t>
   </si>
@@ -23,16 +29,13 @@
     <t>Садовый бордюр Anmaks 82400-Ч Кантри MINI пластиковый черный 10000х80 мм</t>
   </si>
   <si>
-    <t>7245-к-10</t>
-  </si>
-  <si>
-    <t>7245-К-10 Экобордюр КОНТУР Б-100.05.08 пластиковый черный L-1000 мм, H-45 мм, (10 бордюров )</t>
-  </si>
-  <si>
-    <t>82402-Ч</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82402-Ч Кантри MAXI черный 10000х140 мм</t>
+    <t>Бордюр Anmaks садовый бордюр 7260 100 см 6 см черный</t>
+  </si>
+  <si>
+    <t>82402-З</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82402-З Кантри MAXI зеленый 10000х140 мм</t>
   </si>
   <si>
     <t>82401-Ч</t>
@@ -377,7 +380,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -393,7 +396,7 @@
         <v>2</v>
       </c>
       <c r="D1">
-        <v>550</v>
+        <v>1500</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -404,46 +407,60 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>1900</v>
+        <v>550</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>7260</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>219</v>
+      </c>
+      <c r="E3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1150</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>1250</v>
+      </c>
+      <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
         <v>690</v>
       </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="C7">
-        <v>10</v>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="C8">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/leroy/__11list_tovarov_1C(7777).xlsx
+++ b/leroy/__11list_tovarov_1C(7777).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>7280-к-6</t>
   </si>
@@ -23,25 +23,28 @@
     <t>7280-К-6 Экобордюр КОНТУР Б-100.08.08 пластиковый черный L-1000 мм, H-80 мм, (6 бордюров)</t>
   </si>
   <si>
-    <t>82400-Ч</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82400-Ч Кантри MINI пластиковый черный 10000х80 мм</t>
-  </si>
-  <si>
-    <t>Бордюр Anmaks садовый бордюр 7260 100 см 6 см черный</t>
-  </si>
-  <si>
-    <t>82402-З</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82402-З Кантри MAXI зеленый 10000х140 мм</t>
+    <t>82402-Ч</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82402-Ч Кантри MAXI черный 10000х140 мм</t>
+  </si>
+  <si>
+    <t>1840-30</t>
+  </si>
+  <si>
+    <t>Крепящий якорь Anmaks 1840-30 универсальный. Пластик. 30 штук</t>
   </si>
   <si>
     <t>82401-Ч</t>
   </si>
   <si>
     <t>Садовый бордюр Anmaks 82401-Ч Кантри черный 10000х110 мм</t>
+  </si>
+  <si>
+    <t>1940-10</t>
+  </si>
+  <si>
+    <t>Крепящий якорь Anmaks 1940-10 к бордюру Кантри сталь 10 шт</t>
   </si>
 </sst>
 </file>
@@ -393,7 +396,7 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1">
         <v>1500</v>
@@ -407,60 +410,60 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>550</v>
+        <v>1150</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3">
-        <v>7260</v>
+      <c r="A3" t="s">
+        <v>4</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>690</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
-      </c>
-      <c r="D3">
-        <v>219</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1250</v>
+        <v>690</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>690</v>
+        <v>450</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="C8">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/leroy/__11list_tovarov_1C(7777).xlsx
+++ b/leroy/__11list_tovarov_1C(7777).xlsx
@@ -15,36 +15,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
-  <si>
-    <t>7280-к-6</t>
-  </si>
-  <si>
-    <t>7280-К-6 Экобордюр КОНТУР Б-100.08.08 пластиковый черный L-1000 мм, H-80 мм, (6 бордюров)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+  <si>
+    <t>82401-К</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82401-К Кантри коричневый 10000х110 мм</t>
+  </si>
+  <si>
+    <t>Бордюр Anmaks садовый бордюр 7260 100 см 6 см черный</t>
+  </si>
+  <si>
+    <t>82401-Ч</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82401-Ч Кантри черный 10000х110 мм</t>
+  </si>
+  <si>
+    <t>1940-10</t>
+  </si>
+  <si>
+    <t>Крепящий якорь Anmaks 1940-10 к бордюру Кантри сталь 10 шт</t>
   </si>
   <si>
     <t>82402-Ч</t>
   </si>
   <si>
     <t>Садовый бордюр Anmaks 82402-Ч Кантри MAXI черный 10000х140 мм</t>
-  </si>
-  <si>
-    <t>1840-30</t>
-  </si>
-  <si>
-    <t>Крепящий якорь Anmaks 1840-30 универсальный. Пластик. 30 штук</t>
-  </si>
-  <si>
-    <t>82401-Ч</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82401-Ч Кантри черный 10000х110 мм</t>
-  </si>
-  <si>
-    <t>1940-10</t>
-  </si>
-  <si>
-    <t>Крепящий якорь Anmaks 1940-10 к бордюру Кантри сталь 10 шт</t>
   </si>
 </sst>
 </file>
@@ -396,32 +393,32 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D1">
-        <v>1500</v>
+        <v>745</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>7260</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>219</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>1150</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -430,40 +427,40 @@
         <v>690</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>450</v>
+      </c>
+      <c r="E4" t="s">
         <v>6</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>690</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1150</v>
+      </c>
+      <c r="E5" t="s">
         <v>8</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>450</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="C8">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/leroy/__11list_tovarov_1C(7777).xlsx
+++ b/leroy/__11list_tovarov_1C(7777).xlsx
@@ -17,31 +17,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
-    <t>82401-К</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82401-К Кантри коричневый 10000х110 мм</t>
-  </si>
-  <si>
     <t>Бордюр Anmaks садовый бордюр 7260 100 см 6 см черный</t>
   </si>
   <si>
+    <t>82400-Ч</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82400-Ч Кантри MINI пластиковый черный 10000х80 мм</t>
+  </si>
+  <si>
+    <t>1940-10</t>
+  </si>
+  <si>
+    <t>Крепящий якорь Anmaks 1940-10 к бордюру Кантри сталь 10 шт</t>
+  </si>
+  <si>
+    <t>82402-Ч</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82402-Ч Кантри MAXI черный 10000х140 мм</t>
+  </si>
+  <si>
     <t>82401-Ч</t>
   </si>
   <si>
     <t>Садовый бордюр Anmaks 82401-Ч Кантри черный 10000х110 мм</t>
-  </si>
-  <si>
-    <t>1940-10</t>
-  </si>
-  <si>
-    <t>Крепящий якорь Anmaks 1940-10 к бордюру Кантри сталь 10 шт</t>
-  </si>
-  <si>
-    <t>82402-Ч</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82402-Ч Кантри MAXI черный 10000х140 мм</t>
   </si>
 </sst>
 </file>
@@ -389,28 +389,28 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1">
+        <v>7260</v>
+      </c>
+      <c r="C1">
+        <v>36</v>
+      </c>
+      <c r="D1">
+        <v>219</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="C1">
-        <v>9</v>
-      </c>
-      <c r="D1">
-        <v>745</v>
-      </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>7260</v>
-      </c>
       <c r="C2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>219</v>
+        <v>550</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -421,10 +421,10 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>690</v>
+        <v>450</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -435,10 +435,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>450</v>
+        <v>1150</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -449,10 +449,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>1150</v>
+        <v>690</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="C8">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/leroy/__11list_tovarov_1C(7777).xlsx
+++ b/leroy/__11list_tovarov_1C(7777).xlsx
@@ -15,27 +15,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
-  <si>
-    <t>Бордюр Anmaks садовый бордюр 7260 100 см 6 см черный</t>
-  </si>
-  <si>
-    <t>82400-Ч</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82400-Ч Кантри MINI пластиковый черный 10000х80 мм</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+  <si>
+    <t>82402-Ч</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82402-Ч Кантри MAXI черный 10000х140 мм</t>
+  </si>
+  <si>
+    <t>82401-К</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82401-К Кантри коричневый 10000х110 мм</t>
   </si>
   <si>
     <t>1940-10</t>
   </si>
   <si>
     <t>Крепящий якорь Anmaks 1940-10 к бордюру Кантри сталь 10 шт</t>
-  </si>
-  <si>
-    <t>82402-Ч</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82402-Ч Кантри MAXI черный 10000х140 мм</t>
   </si>
   <si>
     <t>82401-Ч</t>
@@ -380,7 +377,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,78 +386,64 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1">
-        <v>7260</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D1">
-        <v>219</v>
+        <v>1150</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>550</v>
+        <v>745</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>450</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1150</v>
+        <v>690</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>690</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="C8">
-        <v>45</v>
+    <row r="7" spans="1:5">
+      <c r="C7">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/leroy/__11list_tovarov_1C(7777).xlsx
+++ b/leroy/__11list_tovarov_1C(7777).xlsx
@@ -15,7 +15,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+  <si>
+    <t>1940-10</t>
+  </si>
+  <si>
+    <t>Крепящий якорь Anmaks 1940-10 к бордюру Кантри сталь 10 шт</t>
+  </si>
+  <si>
+    <t>82401-Ч</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82401-Ч Кантри черный 10000х110 мм</t>
+  </si>
+  <si>
+    <t>82401-К</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82401-К Кантри коричневый 10000х110 мм</t>
+  </si>
   <si>
     <t>82402-Ч</t>
   </si>
@@ -23,22 +41,10 @@
     <t>Садовый бордюр Anmaks 82402-Ч Кантри MAXI черный 10000х140 мм</t>
   </si>
   <si>
-    <t>82401-К</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82401-К Кантри коричневый 10000х110 мм</t>
-  </si>
-  <si>
-    <t>1940-10</t>
-  </si>
-  <si>
-    <t>Крепящий якорь Anmaks 1940-10 к бордюру Кантри сталь 10 шт</t>
-  </si>
-  <si>
-    <t>82401-Ч</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82401-Ч Кантри черный 10000х110 мм</t>
+    <t>82400-Ч</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82400-Ч Кантри MINI пластиковый черный 10000х80 мм</t>
   </si>
 </sst>
 </file>
@@ -377,7 +383,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -390,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1">
-        <v>1150</v>
+        <v>450</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -404,10 +410,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>745</v>
+        <v>690</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -418,10 +424,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>450</v>
+        <v>745</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -435,15 +441,29 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>690</v>
+        <v>1150</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="C7">
-        <v>11</v>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>550</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="C8">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/leroy/__11list_tovarov_1C(7777).xlsx
+++ b/leroy/__11list_tovarov_1C(7777).xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
-  <si>
-    <t>1940-10</t>
-  </si>
-  <si>
-    <t>Крепящий якорь Anmaks 1940-10 к бордюру Кантри сталь 10 шт</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+  <si>
+    <t>82400-Ч</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82400-Ч Кантри MINI пластиковый черный 10000х80 мм</t>
   </si>
   <si>
     <t>82401-Ч</t>
@@ -29,22 +29,10 @@
     <t>Садовый бордюр Anmaks 82401-Ч Кантри черный 10000х110 мм</t>
   </si>
   <si>
-    <t>82401-К</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82401-К Кантри коричневый 10000х110 мм</t>
-  </si>
-  <si>
-    <t>82402-Ч</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82402-Ч Кантри MAXI черный 10000х140 мм</t>
-  </si>
-  <si>
-    <t>82400-Ч</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82400-Ч Кантри MINI пластиковый черный 10000х80 мм</t>
+    <t>1840-30</t>
+  </si>
+  <si>
+    <t>Крепящий якорь Anmaks 1840-30 универсальный. Пластик. 30 штук</t>
   </si>
 </sst>
 </file>
@@ -383,7 +371,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,10 +384,10 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -410,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>690</v>
@@ -424,46 +412,18 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>745</v>
+        <v>690</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1150</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>550</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="C8">
-        <v>25</v>
+    <row r="6" spans="1:5">
+      <c r="C6">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/leroy/__11list_tovarov_1C(7777).xlsx
+++ b/leroy/__11list_tovarov_1C(7777).xlsx
@@ -15,7 +15,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+  <si>
+    <t>1940-10</t>
+  </si>
+  <si>
+    <t>Крепящий якорь Anmaks 1940-10 к бордюру Кантри сталь 10 шт</t>
+  </si>
   <si>
     <t>82400-Ч</t>
   </si>
@@ -23,16 +29,40 @@
     <t>Садовый бордюр Anmaks 82400-Ч Кантри MINI пластиковый черный 10000х80 мм</t>
   </si>
   <si>
+    <t>82401-К</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82401-К Кантри коричневый 10000х110 мм</t>
+  </si>
+  <si>
     <t>82401-Ч</t>
   </si>
   <si>
     <t>Садовый бордюр Anmaks 82401-Ч Кантри черный 10000х110 мм</t>
   </si>
   <si>
+    <t>82402-Ч</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82402-Ч Кантри MAXI черный 10000х140 мм</t>
+  </si>
+  <si>
+    <t>82402-З</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82402-З Кантри MAXI зеленый 10000х140 мм</t>
+  </si>
+  <si>
     <t>1840-30</t>
   </si>
   <si>
     <t>Крепящий якорь Anmaks 1840-30 универсальный. Пластик. 30 штук</t>
+  </si>
+  <si>
+    <t>7245-к-10</t>
+  </si>
+  <si>
+    <t>7245-К-10 Экобордюр КОНТУР Б-100.05.08 пластиковый черный L-1000 мм, H-45 мм, (10 бордюров )</t>
   </si>
 </sst>
 </file>
@@ -371,7 +401,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -384,10 +414,10 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D1">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -398,10 +428,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>690</v>
+        <v>550</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -412,18 +442,88 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>690</v>
+        <v>745</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>690</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1150</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
       <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1250</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>690</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>14</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1900</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="C11">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/leroy/__11list_tovarov_1C(7777).xlsx
+++ b/leroy/__11list_tovarov_1C(7777).xlsx
@@ -15,48 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
-  <si>
-    <t>1940-10</t>
-  </si>
-  <si>
-    <t>Крепящий якорь Anmaks 1940-10 к бордюру Кантри сталь 10 шт</t>
-  </si>
-  <si>
-    <t>82400-Ч</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82400-Ч Кантри MINI пластиковый черный 10000х80 мм</t>
-  </si>
-  <si>
-    <t>82401-К</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82401-К Кантри коричневый 10000х110 мм</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
     <t>82401-Ч</t>
   </si>
   <si>
     <t>Садовый бордюр Anmaks 82401-Ч Кантри черный 10000х110 мм</t>
-  </si>
-  <si>
-    <t>82402-Ч</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82402-Ч Кантри MAXI черный 10000х140 мм</t>
-  </si>
-  <si>
-    <t>82402-З</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82402-З Кантри MAXI зеленый 10000х140 мм</t>
-  </si>
-  <si>
-    <t>1840-30</t>
-  </si>
-  <si>
-    <t>Крепящий якорь Anmaks 1840-30 универсальный. Пластик. 30 штук</t>
   </si>
   <si>
     <t>7245-к-10</t>
@@ -401,7 +365,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -414,10 +378,10 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1">
-        <v>450</v>
+        <v>690</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -431,99 +395,15 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>550</v>
+        <v>1900</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>745</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>22</v>
-      </c>
-      <c r="D4">
-        <v>690</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
       <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>1150</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
         <v>10</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1250</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>690</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1900</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="C11">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/leroy/__11list_tovarov_1C(7777).xlsx
+++ b/leroy/__11list_tovarov_1C(7777).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>82401-Ч</t>
   </si>
@@ -23,10 +23,34 @@
     <t>Садовый бордюр Anmaks 82401-Ч Кантри черный 10000х110 мм</t>
   </si>
   <si>
-    <t>7245-к-10</t>
-  </si>
-  <si>
-    <t>7245-К-10 Экобордюр КОНТУР Б-100.05.08 пластиковый черный L-1000 мм, H-45 мм, (10 бордюров )</t>
+    <t>1840-30</t>
+  </si>
+  <si>
+    <t>Крепящий якорь Anmaks 1840-30 универсальный. Пластик. 30 штук</t>
+  </si>
+  <si>
+    <t>82401-К</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82401-К Кантри коричневый 10000х110 мм</t>
+  </si>
+  <si>
+    <t>82400-Ч</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82400-Ч Кантри MINI пластиковый черный 10000х80 мм</t>
+  </si>
+  <si>
+    <t>1940-10</t>
+  </si>
+  <si>
+    <t>Крепящий якорь Anmaks 1940-10 к бордюру Кантри сталь 10 шт</t>
+  </si>
+  <si>
+    <t>82402-Ч</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82402-Ч Кантри MAXI черный 10000х140 мм</t>
   </si>
 </sst>
 </file>
@@ -365,7 +389,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -378,7 +402,7 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D1">
         <v>690</v>
@@ -392,18 +416,74 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>1900</v>
+        <v>690</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>745</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>550</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
       <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>450</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1150</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="C9">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/leroy/__11list_tovarov_1C(7777).xlsx
+++ b/leroy/__11list_tovarov_1C(7777).xlsx
@@ -15,42 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
   <si>
     <t>82401-Ч</t>
   </si>
   <si>
     <t>Садовый бордюр Anmaks 82401-Ч Кантри черный 10000х110 мм</t>
-  </si>
-  <si>
-    <t>1840-30</t>
-  </si>
-  <si>
-    <t>Крепящий якорь Anmaks 1840-30 универсальный. Пластик. 30 штук</t>
-  </si>
-  <si>
-    <t>82401-К</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82401-К Кантри коричневый 10000х110 мм</t>
-  </si>
-  <si>
-    <t>82400-Ч</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82400-Ч Кантри MINI пластиковый черный 10000х80 мм</t>
-  </si>
-  <si>
-    <t>1940-10</t>
-  </si>
-  <si>
-    <t>Крепящий якорь Anmaks 1940-10 к бордюру Кантри сталь 10 шт</t>
-  </si>
-  <si>
-    <t>82402-Ч</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82402-Ч Кантри MAXI черный 10000х140 мм</t>
   </si>
 </sst>
 </file>
@@ -389,7 +359,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -402,7 +372,7 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D1">
         <v>690</v>
@@ -411,79 +381,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>690</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5">
+      <c r="C4">
         <v>4</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>745</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>550</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>450</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1150</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="C9">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/leroy/__11list_tovarov_1C(7777).xlsx
+++ b/leroy/__11list_tovarov_1C(7777).xlsx
@@ -17,10 +17,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
   <si>
-    <t>82401-Ч</t>
+    <t>82401-К</t>
   </si>
   <si>
-    <t>Садовый бордюр Anmaks 82401-Ч Кантри черный 10000х110 мм</t>
+    <t>Садовый бордюр Anmaks 82401-К Кантри коричневый 10000х110 мм</t>
   </si>
 </sst>
 </file>
@@ -372,10 +372,10 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1">
-        <v>690</v>
+        <v>745</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -383,7 +383,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="C4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/leroy/__11list_tovarov_1C(7777).xlsx
+++ b/leroy/__11list_tovarov_1C(7777).xlsx
@@ -15,12 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
-    <t>82401-К</t>
+    <t>82401-Ч</t>
   </si>
   <si>
-    <t>Садовый бордюр Anmaks 82401-К Кантри коричневый 10000х110 мм</t>
+    <t>Садовый бордюр Anmaks 82401-Ч Кантри черный 10000х110 мм</t>
+  </si>
+  <si>
+    <t>82400-Ч</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82400-Ч Кантри MINI пластиковый черный 10000х80 мм</t>
   </si>
 </sst>
 </file>
@@ -359,7 +365,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -372,18 +378,32 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>745</v>
+        <v>690</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="C4">
-        <v>5</v>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>550</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="C5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/leroy/__11list_tovarov_1C(7777).xlsx
+++ b/leroy/__11list_tovarov_1C(7777).xlsx
@@ -15,7 +15,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+  <si>
+    <t>1840-30</t>
+  </si>
+  <si>
+    <t>Крепящий якорь Anmaks 1840-30 универсальный. Пластик. 30 штук</t>
+  </si>
+  <si>
+    <t>Бордюр Anmaks садовый бордюр 7245 100 см 4.5 см черный</t>
+  </si>
+  <si>
+    <t>82401-К</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82401-К Кантри коричневый 10000х110 мм</t>
+  </si>
   <si>
     <t>82401-Ч</t>
   </si>
@@ -23,10 +38,16 @@
     <t>Садовый бордюр Anmaks 82401-Ч Кантри черный 10000х110 мм</t>
   </si>
   <si>
-    <t>82400-Ч</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82400-Ч Кантри MINI пластиковый черный 10000х80 мм</t>
+    <t>8910-30</t>
+  </si>
+  <si>
+    <t>Крепящий анкер Anmaks 8910-30 универсальный пластиковый 30 шт</t>
+  </si>
+  <si>
+    <t>7280-к-6</t>
+  </si>
+  <si>
+    <t>7280-К-6 Экобордюр КОНТУР Б-100.08.08 пластиковый черный L-1000 мм, H-80 мм, (6 бордюров)</t>
   </si>
 </sst>
 </file>
@@ -365,7 +386,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -378,7 +399,7 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1">
         <v>690</v>
@@ -388,22 +409,78 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>7245</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>206</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>550</v>
-      </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>745</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>690</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
       <c r="C5">
         <v>3</v>
+      </c>
+      <c r="D5">
+        <v>850</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>1500</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="C9">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/leroy/__11list_tovarov_1C(7777).xlsx
+++ b/leroy/__11list_tovarov_1C(7777).xlsx
@@ -15,7 +15,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+  <si>
+    <t>82401-К</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82401-К Кантри коричневый 10000х110 мм</t>
+  </si>
+  <si>
+    <t>Бордюр Anmaks садовый бордюр 7280 100 см 8 см черный</t>
+  </si>
+  <si>
+    <t>82401-Ч</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82401-Ч Кантри черный 10000х110 мм</t>
+  </si>
   <si>
     <t>1840-30</t>
   </si>
@@ -23,31 +38,13 @@
     <t>Крепящий якорь Anmaks 1840-30 универсальный. Пластик. 30 штук</t>
   </si>
   <si>
+    <t>82400-Ч</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82400-Ч Кантри MINI пластиковый черный 10000х80 мм</t>
+  </si>
+  <si>
     <t>Бордюр Anmaks садовый бордюр 7245 100 см 4.5 см черный</t>
-  </si>
-  <si>
-    <t>82401-К</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82401-К Кантри коричневый 10000х110 мм</t>
-  </si>
-  <si>
-    <t>82401-Ч</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82401-Ч Кантри черный 10000х110 мм</t>
-  </si>
-  <si>
-    <t>8910-30</t>
-  </si>
-  <si>
-    <t>Крепящий анкер Anmaks 8910-30 универсальный пластиковый 30 шт</t>
-  </si>
-  <si>
-    <t>7280-к-6</t>
-  </si>
-  <si>
-    <t>7280-К-6 Экобордюр КОНТУР Б-100.08.08 пластиковый черный L-1000 мм, H-80 мм, (6 бордюров)</t>
   </si>
 </sst>
 </file>
@@ -399,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1">
-        <v>690</v>
+        <v>745</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -410,13 +407,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>7245</v>
+        <v>7280</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -430,7 +427,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>745</v>
+        <v>690</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -441,7 +438,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>690</v>
@@ -458,29 +455,29 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="A6">
+        <v>7245</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>206</v>
+      </c>
+      <c r="E6" t="s">
         <v>9</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>1500</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="C9">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
